--- a/DevelopStock/tools/stockA.xlsx
+++ b/DevelopStock/tools/stockA.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="B1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
@@ -506,45 +506,561 @@
     </row>
     <row r="2">
       <c r="B2" t="n">
+        <v>20190819</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>星期一</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>87</v>
+      </c>
+      <c r="H2" t="n">
+        <v>35</v>
+      </c>
+      <c r="I2" t="n">
+        <v>122</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="L2" t="n">
+        <v>91</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="n">
         <v>20190816</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>星期五</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>12</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E3" t="n">
         <v>3</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>36</v>
+      </c>
+      <c r="H3" t="n">
+        <v>17</v>
+      </c>
+      <c r="I3" t="n">
+        <v>53</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="L3" t="n">
+        <v>32</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="n">
+        <v>20190815</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>星期四</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>32</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21</v>
+      </c>
+      <c r="I4" t="n">
+        <v>53</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>25</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n">
+        <v>20190814</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>星期三</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
         <v>3</v>
       </c>
-      <c r="G2" t="n">
-        <v>36</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G5" t="n">
+        <v>31</v>
+      </c>
+      <c r="H5" t="n">
+        <v>27</v>
+      </c>
+      <c r="I5" t="n">
+        <v>58</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="L5" t="n">
+        <v>34</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="n">
+        <v>20190813</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>星期二</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>22</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>21</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-1.19</v>
+      </c>
+      <c r="L6" t="n">
         <v>17</v>
       </c>
-      <c r="I2" t="n">
-        <v>53</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.59537416890359</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-0.5665201495919598</v>
-      </c>
-      <c r="L2" t="n">
-        <v>32</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-0.5063323085548974</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.24</v>
+      <c r="M6" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="n">
+        <v>20190812</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>星期一</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>13</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>41</v>
+      </c>
+      <c r="H7" t="n">
+        <v>20</v>
+      </c>
+      <c r="I7" t="n">
+        <v>61</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="L7" t="n">
+        <v>38</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="n">
+        <v>20190809</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>星期五</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>73</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>17</v>
+      </c>
+      <c r="H8" t="n">
+        <v>16</v>
+      </c>
+      <c r="I8" t="n">
+        <v>33</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="L8" t="n">
+        <v>14</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="n">
+        <v>20190808</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>星期四</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>52</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>30</v>
+      </c>
+      <c r="H9" t="n">
+        <v>18</v>
+      </c>
+      <c r="I9" t="n">
+        <v>48</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-3.41</v>
+      </c>
+      <c r="L9" t="n">
+        <v>24</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="n">
+        <v>20190807</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>星期三</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>71</v>
+      </c>
+      <c r="E10" t="n">
+        <v>14</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>26</v>
+      </c>
+      <c r="H10" t="n">
+        <v>26</v>
+      </c>
+      <c r="I10" t="n">
+        <v>52</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.87</v>
+      </c>
+      <c r="L10" t="n">
+        <v>27</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-3.34</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="n">
+        <v>20190806</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>星期二</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>560</v>
+      </c>
+      <c r="E11" t="n">
+        <v>25</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>18</v>
+      </c>
+      <c r="H11" t="n">
+        <v>11</v>
+      </c>
+      <c r="I11" t="n">
+        <v>29</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-2.14</v>
+      </c>
+      <c r="L11" t="n">
+        <v>11</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-2.72</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="n">
+        <v>20190805</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>星期一</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>49</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>33</v>
+      </c>
+      <c r="H12" t="n">
+        <v>15</v>
+      </c>
+      <c r="I12" t="n">
+        <v>48</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="L12" t="n">
+        <v>30</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="n">
+        <v>20190802</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>星期五</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>66</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>21</v>
+      </c>
+      <c r="H13" t="n">
+        <v>30</v>
+      </c>
+      <c r="I13" t="n">
+        <v>51</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="L13" t="n">
+        <v>15</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="n">
+        <v>20190801</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>星期四</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>31</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>25</v>
+      </c>
+      <c r="H14" t="n">
+        <v>25</v>
+      </c>
+      <c r="I14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="L14" t="n">
+        <v>20</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
